--- a/GreenBand Gantt.xlsx
+++ b/GreenBand Gantt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YunJunHyuck\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\GreenBand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{C38AB49A-486A-4B9B-8608-F21F2E62D6C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EFC6DF-FDF0-49A7-B313-E2EDB28ECD73}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,95 +595,95 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="3" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="7" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="3" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="7" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1097,7 +1097,7 @@
   <dimension ref="B1:AH17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1112,7 +1112,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:34" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="5"/>
@@ -1149,12 +1149,12 @@
       <c r="AH1" s="7"/>
     </row>
     <row r="2" spans="2:34" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="45" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="32" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="8">
@@ -1162,59 +1162,59 @@
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="22"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="22"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="36"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="24"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="40"/>
       <c r="Z2" s="12"/>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="27"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="43"/>
       <c r="AH2" s="13"/>
     </row>
     <row r="3" spans="2:34" s="4" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
@@ -1243,620 +1243,620 @@
       <c r="AH3" s="16"/>
     </row>
     <row r="4" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="30"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="28">
+      <c r="B4" s="46"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="17">
         <v>20</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="17">
         <v>21</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="17">
         <v>22</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="17">
         <v>23</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="17">
         <v>24</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="17">
         <v>25</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="17">
         <v>26</v>
       </c>
-      <c r="O4" s="28">
+      <c r="O4" s="17">
         <v>27</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="17">
         <v>28</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="17">
         <v>29</v>
       </c>
-      <c r="R4" s="28">
+      <c r="R4" s="17">
         <v>30</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="17">
         <v>31</v>
       </c>
-      <c r="T4" s="28">
+      <c r="T4" s="17">
         <v>32</v>
       </c>
-      <c r="U4" s="28">
+      <c r="U4" s="17">
         <v>33</v>
       </c>
-      <c r="V4" s="28">
+      <c r="V4" s="17">
         <v>34</v>
       </c>
-      <c r="W4" s="28">
+      <c r="W4" s="17">
         <v>35</v>
       </c>
-      <c r="X4" s="28">
+      <c r="X4" s="17">
         <v>36</v>
       </c>
-      <c r="Y4" s="28">
+      <c r="Y4" s="17">
         <v>37</v>
       </c>
-      <c r="Z4" s="28">
+      <c r="Z4" s="17">
         <v>38</v>
       </c>
-      <c r="AA4" s="28">
+      <c r="AA4" s="17">
         <v>39</v>
       </c>
-      <c r="AB4" s="28">
+      <c r="AB4" s="17">
         <v>40</v>
       </c>
-      <c r="AC4" s="28">
+      <c r="AC4" s="17">
         <v>41</v>
       </c>
-      <c r="AD4" s="28">
+      <c r="AD4" s="17">
         <v>42</v>
       </c>
-      <c r="AE4" s="28">
+      <c r="AE4" s="17">
         <v>43</v>
       </c>
-      <c r="AF4" s="28">
+      <c r="AF4" s="17">
         <v>44</v>
       </c>
-      <c r="AG4" s="28">
+      <c r="AG4" s="17">
         <v>45</v>
       </c>
-      <c r="AH4" s="28">
+      <c r="AH4" s="17">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:34" ht="21" x14ac:dyDescent="0.45">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="18">
         <v>20</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="18">
         <v>1</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
     </row>
     <row r="6" spans="2:34" ht="21" x14ac:dyDescent="0.45">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="18">
         <v>20</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="18">
         <v>1</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
     </row>
     <row r="7" spans="2:34" ht="21" x14ac:dyDescent="0.45">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="18">
         <v>21</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="18">
         <v>4</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
     </row>
     <row r="8" spans="2:34" ht="21" x14ac:dyDescent="0.45">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="18">
         <v>25</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="18">
         <v>5</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="35"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
     </row>
     <row r="9" spans="2:34" ht="21" x14ac:dyDescent="0.45">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="18">
         <v>30</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="18">
         <v>1</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
     </row>
     <row r="10" spans="2:34" ht="21" x14ac:dyDescent="0.45">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="18">
         <v>31</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="18">
         <v>2</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="35"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
     </row>
     <row r="11" spans="2:34" ht="21" x14ac:dyDescent="0.45">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="18">
         <v>33</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="18">
         <v>5</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="35"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
     </row>
     <row r="12" spans="2:34" ht="21" x14ac:dyDescent="0.45">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="18">
         <v>38</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="18">
         <v>2</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="35"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="35"/>
-      <c r="AH12" s="35"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
     </row>
     <row r="13" spans="2:34" ht="21" x14ac:dyDescent="0.45">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="18">
         <v>40</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="18">
         <v>2</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="35"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
     </row>
     <row r="14" spans="2:34" ht="21" x14ac:dyDescent="0.45">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="18">
         <v>42</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="18">
         <v>1</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="35"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
     </row>
     <row r="15" spans="2:34" ht="21" x14ac:dyDescent="0.45">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="19">
         <v>43</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="18">
         <v>2</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
     </row>
     <row r="16" spans="2:34" ht="21" x14ac:dyDescent="0.45">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="18">
         <v>45</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="18">
         <v>1</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
-      <c r="AE16" s="35"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
     </row>
     <row r="17" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="41"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/GreenBand Gantt.xlsx
+++ b/GreenBand Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\GreenBand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EFC6DF-FDF0-49A7-B313-E2EDB28ECD73}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B52FCD7-BFF2-45C2-951C-D44218E76C22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -643,6 +643,15 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="7" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -675,15 +684,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1097,7 +1097,7 @@
   <dimension ref="B1:AH17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1149,11 +1149,11 @@
       <c r="AH1" s="7"/>
     </row>
     <row r="2" spans="2:34" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="32" t="s">
         <v>5</v>
       </c>
@@ -1162,56 +1162,56 @@
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="36"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="39"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="38" t="s">
+      <c r="V2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="40"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="43"/>
       <c r="Z2" s="12"/>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="43"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="46"/>
       <c r="AH2" s="13"/>
     </row>
     <row r="3" spans="2:34" s="4" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="36" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="29"/>
@@ -1243,12 +1243,12 @@
       <c r="AH3" s="16"/>
     </row>
     <row r="4" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="46"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="17">
         <v>20</v>
       </c>
@@ -1341,8 +1341,12 @@
       <c r="D5" s="18">
         <v>1</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="E5" s="18">
+        <v>21</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
       <c r="G5" s="31"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
@@ -1382,8 +1386,12 @@
       <c r="D6" s="18">
         <v>1</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="E6" s="18">
+        <v>21</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
       <c r="G6" s="31"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -1860,17 +1868,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H5:AH17">
@@ -1909,7 +1917,7 @@
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="16">
+  <dataValidations xWindow="183" yWindow="484" count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="프로젝트 플래너는 간격에 대한 기간을 사용합니다. 시작=1은 기간 1이고 기간=5는 프로젝트가 시작 기간부터 시작해서 5개의 기간 동안 진행됨을 의미합니다. B5에서 시작하는 날짜를 입력하여 차트를 업데이트합니다." sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1에서 60까지 범위의 값을 입력하고 목록에서 기간을 선택한 후 취소를 누르고 ALT+아래쪽 화살표를 누른 후 Enter 키를 눌러 값을 선택합니다." prompt="1에서 60까지 범위의 기간을 입력하거나 목록에서 기간을 선택합니다. Alt+아래쪽 화살표를 눌러 목록을 찾은 다음 Enter 키를 눌러 값을 선택합니다." sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>

--- a/GreenBand Gantt.xlsx
+++ b/GreenBand Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\GreenBand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B52FCD7-BFF2-45C2-951C-D44218E76C22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715924BB-CAC0-4117-ADE1-0D1B2CF3D056}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1097,7 +1097,7 @@
   <dimension ref="B1:AH17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1431,8 +1431,12 @@
       <c r="D7" s="18">
         <v>4</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="E7" s="18">
+        <v>22</v>
+      </c>
+      <c r="F7" s="18">
+        <v>4</v>
+      </c>
       <c r="G7" s="31"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -1472,7 +1476,9 @@
       <c r="D8" s="18">
         <v>5</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="18">
+        <v>26</v>
+      </c>
       <c r="F8" s="18"/>
       <c r="G8" s="31"/>
       <c r="H8" s="21"/>
